--- a/build/classes/quanlycuahanggiay_java/excel/exported_data.xlsx
+++ b/build/classes/quanlycuahanggiay_java/excel/exported_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="137">
   <si>
     <t>Mã HĐ</t>
   </si>
@@ -65,13 +65,100 @@
     <t>20000000.00</t>
   </si>
   <si>
-    <t>44</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>25000000.00</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>28000000.00</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>KM001</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>30000000.00</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>32000000.00</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>35000000.00</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>37000000.00</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>15000000.00</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>2024-05-05</t>
@@ -80,96 +167,6 @@
     <t>22000000.00</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
-    <t>25000000.00</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>28000000.00</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
-  </si>
-  <si>
-    <t>30000000.00</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2024-06-20</t>
-  </si>
-  <si>
-    <t>32000000.00</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>35000000.00</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-05-12</t>
-  </si>
-  <si>
-    <t>37000000.00</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>15000000.00</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -396,6 +393,36 @@
   </si>
   <si>
     <t>11401353.00</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2300000.00</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2500000.00</t>
   </si>
 </sst>
 </file>
@@ -440,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -511,10 +538,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -534,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -554,90 +581,90 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -651,59 +678,59 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -711,10 +738,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -734,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -754,16 +781,16 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -771,19 +798,19 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -791,19 +818,19 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -811,19 +838,19 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -831,13 +858,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
@@ -851,19 +878,19 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -871,19 +898,19 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -891,19 +918,19 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -911,10 +938,10 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -934,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -954,16 +981,16 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -971,19 +998,19 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -991,19 +1018,19 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -1011,19 +1038,19 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -1031,13 +1058,13 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>44</v>
@@ -1051,19 +1078,19 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1071,19 +1098,19 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1091,19 +1118,19 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -1111,10 +1138,10 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1134,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -1154,16 +1181,16 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1171,19 +1198,19 @@
         <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -1191,19 +1218,19 @@
         <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -1211,19 +1238,19 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -1231,39 +1258,39 @@
         <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -1277,53 +1304,53 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -1334,16 +1361,16 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -1354,236 +1381,236 @@
         <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
         <v>79</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58">
@@ -1591,119 +1618,179 @@
         <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/quanlycuahanggiay_java/excel/exported_data.xlsx
+++ b/build/classes/quanlycuahanggiay_java/excel/exported_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
   <si>
     <t>Mã HĐ</t>
   </si>
@@ -423,6 +423,75 @@
   </si>
   <si>
     <t>2500000.00</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>8800000.00</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>8200000.00</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>52800000.00</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>6001200.00</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>3802400.00</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
 </sst>
 </file>
@@ -467,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1793,6 +1862,226 @@
         <v>136</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
